--- a/UnityBasic2 project/Assets/Data/Data.xlsx
+++ b/UnityBasic2 project/Assets/Data/Data.xlsx
@@ -1,100 +1,868 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="6" rupBuild="10.105.276.55868"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Project\ProjectBS\ProjectBS\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5624E0-82EA-45F1-8ED0-E4766F84D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" sheetId="3" r:id="rId1"/>
+    <sheet name="Dialogue" sheetId="1" r:id="rId2"/>
+    <sheet name="Character" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Name_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ID_I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bbno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>Character_NameTltle</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Character_NameTitle</t>
+  </si>
+  <si>
+    <t>Character_Image</t>
+  </si>
+  <si>
+    <t>BGImage</t>
+  </si>
+  <si>
+    <t>Dialogue</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>호시노</t>
+  </si>
+  <si>
+    <t>학생</t>
+  </si>
+  <si>
+    <t>aa5</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>호시노_기본 표정</t>
+  </si>
+  <si>
+    <t>ral1</t>
+  </si>
+  <si>
+    <t>ral2</t>
+  </si>
+  <si>
+    <t>blak</t>
+  </si>
+  <si>
+    <t>안</t>
+  </si>
+  <si>
+    <t>안_기본 표정</t>
+  </si>
+  <si>
+    <t>blak_ak</t>
+  </si>
+  <si>
+    <t>안_웃는표정</t>
+  </si>
+  <si>
+    <t>bg6</t>
+  </si>
+  <si>
+    <t>전 바보가 된 안도 좋다고 생각합니다.</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>안_뚱한 표정</t>
+  </si>
+  <si>
+    <t>안_웃는 표정</t>
+  </si>
+  <si>
+    <t>코하네</t>
+  </si>
+  <si>
+    <t>aa6</t>
+  </si>
+  <si>
+    <t>코하네_기본 표정</t>
+  </si>
+  <si>
+    <t>ID_1</t>
+  </si>
+  <si>
+    <t>aa1</t>
+  </si>
+  <si>
+    <t>코하네_기본 표정1</t>
+  </si>
+  <si>
+    <t>에나</t>
+  </si>
+  <si>
+    <t>불량 학생</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>에나_기본 표정</t>
+  </si>
+  <si>
+    <t>미즈키</t>
+  </si>
+  <si>
+    <t>aa2</t>
+  </si>
+  <si>
+    <t>미즈키_기본 표정</t>
+  </si>
+  <si>
+    <t>bg7</t>
+  </si>
+  <si>
+    <t>bg8</t>
+  </si>
+  <si>
+    <t>bg9</t>
+  </si>
+  <si>
+    <t>bg10</t>
+  </si>
+  <si>
+    <t>bg5</t>
+  </si>
+  <si>
+    <t>bg4</t>
+  </si>
+  <si>
+    <t>대사도</t>
+  </si>
+  <si>
+    <t>다양하게</t>
+  </si>
+  <si>
+    <t>바뀔수</t>
+  </si>
+  <si>
+    <t>있을겁니다.</t>
+  </si>
+  <si>
+    <t>유니</t>
+  </si>
+  <si>
+    <t>린</t>
+  </si>
+  <si>
+    <t>안_기본표정</t>
+  </si>
+  <si>
+    <t>안_뚱한표정</t>
+  </si>
+  <si>
+    <t>코하네_기본표정</t>
+  </si>
+  <si>
+    <t>코하네_기본표정1</t>
+  </si>
+  <si>
+    <t>에나_기본표정</t>
+  </si>
+  <si>
+    <t>미즈키_기본표정</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="20">
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="2" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -360,33 +1128,480 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
+        <v>10201</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
+        <v>10101</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <v>10102</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>10301</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>10401</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
     </row>
   </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:L6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
+        <v>10101</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2">
+        <v>10102</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2">
+        <v>10103</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2">
+        <v>10201</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2">
+        <v>10201</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2">
+        <v>10301</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2">
+        <v>10401</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:L8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>